--- a/sputnik/personal/ee/173ee.xlsx
+++ b/sputnik/personal/ee/173ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -469,10 +469,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -649,26 +649,77 @@
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F8" s="7" t="s">
+      <c r="A8" s="6">
+        <v>43934</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>45730</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" ref="D8:D9" si="2">C8-C6</f>
+        <v>385</v>
+      </c>
+      <c r="E8" s="2">
+        <v>4.49</v>
+      </c>
+      <c r="F8" s="8">
+        <f>D8*E8</f>
+        <v>1728.65</v>
+      </c>
+      <c r="G8" s="9">
+        <f>SUM(F8,F9)</f>
+        <v>1998.38</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1998.38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>21002</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="2"/>
+        <v>111</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F9" s="8">
+        <f>D9*E9</f>
+        <v>269.73</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="9">
-        <f>SUM(G4:G7)</f>
-        <v>9031.6500000000015</v>
-      </c>
-      <c r="H8" s="9">
-        <f>SUM(H4:H7)</f>
-        <v>8997.65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F9" s="7" t="s">
+      <c r="G10" s="9">
+        <f>SUM(G4:G9)</f>
+        <v>11030.030000000002</v>
+      </c>
+      <c r="H10" s="9">
+        <f>SUM(H4:H9)</f>
+        <v>10996.029999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="9">
-        <f>SUM(H8,-G8)</f>
-        <v>-34.000000000001819</v>
+      <c r="G11" s="7"/>
+      <c r="H11" s="9">
+        <f>SUM(H10,-G10)</f>
+        <v>-34.000000000003638</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/173ee.xlsx
+++ b/sputnik/personal/ee/173ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -469,10 +469,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -564,7 +564,7 @@
         <v>4.49</v>
       </c>
       <c r="F4" s="8">
-        <f>D4*E4</f>
+        <f t="shared" ref="F4:F9" si="1">D4*E4</f>
         <v>3816.5</v>
       </c>
       <c r="G4" s="9">
@@ -591,7 +591,7 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="F5" s="8">
-        <f>D5*E5</f>
+        <f t="shared" si="1"/>
         <v>1215</v>
       </c>
       <c r="G5" s="7"/>
@@ -608,14 +608,14 @@
         <v>45345</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" ref="D6:D7" si="1">C6-C4</f>
+        <f t="shared" ref="D6:D7" si="2">C6-C4</f>
         <v>728</v>
       </c>
       <c r="E6" s="2">
         <v>4.49</v>
       </c>
       <c r="F6" s="8">
-        <f>D6*E6</f>
+        <f t="shared" si="1"/>
         <v>3268.7200000000003</v>
       </c>
       <c r="G6" s="9">
@@ -635,14 +635,14 @@
         <v>20891</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>301</v>
       </c>
       <c r="E7" s="2">
         <v>2.4300000000000002</v>
       </c>
       <c r="F7" s="8">
-        <f>D7*E7</f>
+        <f t="shared" si="1"/>
         <v>731.43000000000006</v>
       </c>
       <c r="G7" s="7"/>
@@ -659,14 +659,14 @@
         <v>45730</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" ref="D8:D9" si="2">C8-C6</f>
+        <f t="shared" ref="D8:D9" si="3">C8-C6</f>
         <v>385</v>
       </c>
       <c r="E8" s="2">
         <v>4.49</v>
       </c>
       <c r="F8" s="8">
-        <f>D8*E8</f>
+        <f t="shared" si="1"/>
         <v>1728.65</v>
       </c>
       <c r="G8" s="9">
@@ -686,39 +686,90 @@
         <v>21002</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>111</v>
       </c>
       <c r="E9" s="2">
         <v>2.4300000000000002</v>
       </c>
       <c r="F9" s="8">
-        <f>D9*E9</f>
+        <f t="shared" si="1"/>
         <v>269.73</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F10" s="7" t="s">
+      <c r="A10" s="6">
+        <v>44012</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>46130</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" ref="D10:D11" si="4">C10-C8</f>
+        <v>400</v>
+      </c>
+      <c r="E10" s="2">
+        <v>4.49</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" ref="F10:F11" si="5">D10*E10</f>
+        <v>1796</v>
+      </c>
+      <c r="G10" s="9">
+        <f>SUM(F10,F11)</f>
+        <v>2282</v>
+      </c>
+      <c r="H10" s="7">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>21202</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="5"/>
+        <v>486.00000000000006</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="9">
-        <f>SUM(G4:G9)</f>
-        <v>11030.030000000002</v>
-      </c>
-      <c r="H10" s="9">
-        <f>SUM(H4:H9)</f>
-        <v>10996.029999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F11" s="7" t="s">
+      <c r="G12" s="9">
+        <f>SUM(G4:G11)</f>
+        <v>13312.030000000002</v>
+      </c>
+      <c r="H12" s="9">
+        <f>SUM(H4:H11)</f>
+        <v>13278.029999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="9">
-        <f>SUM(H10,-G10)</f>
+      <c r="G13" s="7"/>
+      <c r="H13" s="9">
+        <f>SUM(H12,-G12)</f>
         <v>-34.000000000003638</v>
       </c>
     </row>

--- a/sputnik/personal/ee/173ee.xlsx
+++ b/sputnik/personal/ee/173ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -469,10 +469,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -751,25 +751,76 @@
       <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F12" s="7" t="s">
+      <c r="A12" s="6">
+        <v>44039</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>46630</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" ref="D12:D13" si="6">C12-C10</f>
+        <v>500</v>
+      </c>
+      <c r="E12" s="2">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" ref="F12:F13" si="7">D12*E12</f>
+        <v>2355</v>
+      </c>
+      <c r="G12" s="9">
+        <f>SUM(F12,F13)</f>
+        <v>2610</v>
+      </c>
+      <c r="H12" s="7">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>21302</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="7"/>
+        <v>254.99999999999997</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="9">
-        <f>SUM(G4:G11)</f>
-        <v>13312.030000000002</v>
-      </c>
-      <c r="H12" s="9">
-        <f>SUM(H4:H11)</f>
-        <v>13278.029999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F13" s="7" t="s">
+      <c r="G14" s="9">
+        <f>SUM(G4:G13)</f>
+        <v>15922.030000000002</v>
+      </c>
+      <c r="H14" s="9">
+        <f>SUM(H4:H13)</f>
+        <v>15888.029999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="9">
-        <f>SUM(H12,-G12)</f>
+      <c r="G15" s="7"/>
+      <c r="H15" s="9">
+        <f>SUM(H14,-G14)</f>
         <v>-34.000000000003638</v>
       </c>
     </row>

--- a/sputnik/personal/ee/173ee.xlsx
+++ b/sputnik/personal/ee/173ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -469,10 +469,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -802,25 +802,76 @@
       <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F14" s="7" t="s">
+      <c r="A14" s="6">
+        <v>44102</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>47130</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" ref="D14:D15" si="8">C14-C12</f>
+        <v>500</v>
+      </c>
+      <c r="E14" s="2">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" ref="F14:F15" si="9">D14*E14</f>
+        <v>2355</v>
+      </c>
+      <c r="G14" s="9">
+        <f>SUM(F14,F15)</f>
+        <v>2661</v>
+      </c>
+      <c r="H14" s="7">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>21422</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="8"/>
+        <v>120</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="9"/>
+        <v>306</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F16" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="9">
-        <f>SUM(G4:G13)</f>
-        <v>15922.030000000002</v>
-      </c>
-      <c r="H14" s="9">
-        <f>SUM(H4:H13)</f>
-        <v>15888.029999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F15" s="7" t="s">
+      <c r="G16" s="9">
+        <f>SUM(G4:G15)</f>
+        <v>18583.030000000002</v>
+      </c>
+      <c r="H16" s="9">
+        <f>SUM(H4:H15)</f>
+        <v>18549.03</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="9">
-        <f>SUM(H14,-G14)</f>
+      <c r="G17" s="7"/>
+      <c r="H17" s="9">
+        <f>SUM(H16,-G16)</f>
         <v>-34.000000000003638</v>
       </c>
     </row>

--- a/sputnik/personal/ee/173ee.xlsx
+++ b/sputnik/personal/ee/173ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -139,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -162,6 +162,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -469,10 +470,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -697,7 +698,7 @@
         <v>269.73</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
@@ -724,7 +725,7 @@
         <f>SUM(F10,F11)</f>
         <v>2282</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="10">
         <v>2282</v>
       </c>
     </row>
@@ -748,7 +749,7 @@
         <v>486.00000000000006</v>
       </c>
       <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
@@ -775,7 +776,7 @@
         <f>SUM(F12,F13)</f>
         <v>2610</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="10">
         <v>2610</v>
       </c>
     </row>
@@ -799,7 +800,7 @@
         <v>254.99999999999997</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
@@ -826,7 +827,7 @@
         <f>SUM(F14,F15)</f>
         <v>2661</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="10">
         <v>2661</v>
       </c>
     </row>
@@ -853,25 +854,76 @@
       <c r="H15" s="7"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F16" s="7" t="s">
+      <c r="A16" s="6">
+        <v>44131</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>47436</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" ref="D16:D17" si="10">C16-C14</f>
+        <v>306</v>
+      </c>
+      <c r="E16" s="2">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="8">
+        <f t="shared" ref="F16:F17" si="11">D16*E16</f>
+        <v>1441.26</v>
+      </c>
+      <c r="G16" s="9">
+        <f>SUM(F16,F17)</f>
+        <v>1749.81</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1749.81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>21543</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="10"/>
+        <v>121</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="8">
+        <f t="shared" si="11"/>
+        <v>308.54999999999995</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="9">
-        <f>SUM(G4:G15)</f>
-        <v>18583.030000000002</v>
-      </c>
-      <c r="H16" s="9">
-        <f>SUM(H4:H15)</f>
-        <v>18549.03</v>
-      </c>
-    </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F17" s="7" t="s">
+      <c r="G18" s="9">
+        <f>SUM(G4:G17)</f>
+        <v>20332.840000000004</v>
+      </c>
+      <c r="H18" s="9">
+        <f>SUM(H4:H17)</f>
+        <v>20298.84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="9">
-        <f>SUM(H16,-G16)</f>
+      <c r="G19" s="7"/>
+      <c r="H19" s="9">
+        <f>SUM(H18,-G18)</f>
         <v>-34.000000000003638</v>
       </c>
     </row>

--- a/sputnik/personal/ee/173ee.xlsx
+++ b/sputnik/personal/ee/173ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -91,12 +91,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -139,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -163,6 +169,8 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -470,10 +478,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -568,11 +576,11 @@
         <f t="shared" ref="F4:F9" si="1">D4*E4</f>
         <v>3816.5</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="11">
         <f>SUM(F4,F5)</f>
         <v>5031.5</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="12">
         <v>4997.5</v>
       </c>
     </row>
@@ -905,25 +913,76 @@
       <c r="H17" s="7"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F18" s="7" t="s">
+      <c r="A18" s="6">
+        <v>44209</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>47776</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" ref="D18:D19" si="12">C18-C16</f>
+        <v>340</v>
+      </c>
+      <c r="E18" s="2">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="8">
+        <f t="shared" ref="F18:F19" si="13">D18*E18</f>
+        <v>1601.4</v>
+      </c>
+      <c r="G18" s="9">
+        <f>SUM(F18,F19)</f>
+        <v>3016.65</v>
+      </c>
+      <c r="H18" s="7">
+        <v>3016.65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
+        <v>22098</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="12"/>
+        <v>555</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" si="13"/>
+        <v>1415.25</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="9">
-        <f>SUM(G4:G17)</f>
-        <v>20332.840000000004</v>
-      </c>
-      <c r="H18" s="9">
-        <f>SUM(H4:H17)</f>
-        <v>20298.84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F19" s="7" t="s">
+      <c r="G20" s="9">
+        <f>SUM(G4:G19)</f>
+        <v>23349.490000000005</v>
+      </c>
+      <c r="H20" s="9">
+        <f>SUM(H4:H19)</f>
+        <v>23315.49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="9">
-        <f>SUM(H18,-G18)</f>
+      <c r="G21" s="7"/>
+      <c r="H21" s="9">
+        <f>SUM(H20,-G20)</f>
         <v>-34.000000000003638</v>
       </c>
     </row>

--- a/sputnik/personal/ee/173ee.xlsx
+++ b/sputnik/personal/ee/173ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -478,10 +478,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:H4"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -964,25 +964,76 @@
       <c r="H19" s="7"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F20" s="7" t="s">
+      <c r="A20" s="6">
+        <v>44256</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>48416</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" ref="D20:D21" si="14">C20-C18</f>
+        <v>640</v>
+      </c>
+      <c r="E20" s="2">
+        <v>4.71</v>
+      </c>
+      <c r="F20" s="8">
+        <f t="shared" ref="F20:F21" si="15">D20*E20</f>
+        <v>3014.4</v>
+      </c>
+      <c r="G20" s="9">
+        <f>SUM(F20,F21)</f>
+        <v>3524.4</v>
+      </c>
+      <c r="H20" s="7">
+        <v>3524.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
+        <v>22298</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="14"/>
+        <v>200</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F21" s="8">
+        <f t="shared" si="15"/>
+        <v>509.99999999999994</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F22" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G22" s="9">
         <f>SUM(G4:G19)</f>
         <v>23349.490000000005</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H22" s="9">
         <f>SUM(H4:H19)</f>
         <v>23315.49</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F21" s="7" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="9">
-        <f>SUM(H20,-G20)</f>
+      <c r="G23" s="7"/>
+      <c r="H23" s="9">
+        <f>SUM(H22,-G22)</f>
         <v>-34.000000000003638</v>
       </c>
     </row>

--- a/sputnik/personal/ee/173ee.xlsx
+++ b/sputnik/personal/ee/173ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -478,10 +478,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1015,25 +1015,76 @@
       <c r="H21" s="7"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F22" s="7" t="s">
+      <c r="A22" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
+        <v>49266</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" ref="D22:D23" si="16">C22-C20</f>
+        <v>850</v>
+      </c>
+      <c r="E22" s="2">
+        <v>4.71</v>
+      </c>
+      <c r="F22" s="8">
+        <f t="shared" ref="F22:F23" si="17">D22*E22</f>
+        <v>4003.5</v>
+      </c>
+      <c r="G22" s="9">
+        <f>SUM(F22,F23)</f>
+        <v>5023.5</v>
+      </c>
+      <c r="H22" s="7">
+        <v>5023.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
+        <v>22698</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="16"/>
+        <v>400</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F23" s="8">
+        <f t="shared" si="17"/>
+        <v>1019.9999999999999</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F24" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G24" s="9">
         <f>SUM(G4:G19)</f>
         <v>23349.490000000005</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H24" s="9">
         <f>SUM(H4:H19)</f>
         <v>23315.49</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F23" s="7" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="9">
-        <f>SUM(H22,-G22)</f>
+      <c r="G25" s="7"/>
+      <c r="H25" s="9">
+        <f>SUM(H24,-G24)</f>
         <v>-34.000000000003638</v>
       </c>
     </row>

--- a/sputnik/personal/ee/173ee.xlsx
+++ b/sputnik/personal/ee/173ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -478,10 +478,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1025,7 +1025,7 @@
         <v>49266</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" ref="D22:D23" si="16">C22-C20</f>
+        <f t="shared" ref="D22:D24" si="16">C22-C20</f>
         <v>850</v>
       </c>
       <c r="E22" s="2">
@@ -1066,26 +1066,77 @@
       <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F24" s="7" t="s">
+      <c r="A24" s="6">
+        <v>44389</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2">
+        <v>49771</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="16"/>
+        <v>505</v>
+      </c>
+      <c r="E24" s="2">
+        <v>4.96</v>
+      </c>
+      <c r="F24" s="8">
+        <f t="shared" ref="F24:F25" si="18">D24*E24</f>
+        <v>2504.8000000000002</v>
+      </c>
+      <c r="G24" s="9">
+        <f>SUM(F24,F25)</f>
+        <v>3040.8</v>
+      </c>
+      <c r="H24" s="7">
+        <v>3040.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2">
+        <v>22898</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" ref="D24:D25" si="19">C25-C23</f>
+        <v>200</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2.68</v>
+      </c>
+      <c r="F25" s="8">
+        <f t="shared" si="18"/>
+        <v>536</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F26" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="9">
-        <f>SUM(G4:G19)</f>
-        <v>23349.490000000005</v>
-      </c>
-      <c r="H24" s="9">
-        <f>SUM(H4:H19)</f>
-        <v>23315.49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F25" s="7" t="s">
+      <c r="G26" s="9">
+        <f>SUM(G4:G25)</f>
+        <v>34938.19000000001</v>
+      </c>
+      <c r="H26" s="9">
+        <f>SUM(H4:H25)</f>
+        <v>34904.19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F27" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="7"/>
-      <c r="H25" s="9">
-        <f>SUM(H24,-G24)</f>
-        <v>-34.000000000003638</v>
+      <c r="G27" s="7"/>
+      <c r="H27" s="9">
+        <f>SUM(H26,-G26)</f>
+        <v>-34.000000000007276</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/173ee.xlsx
+++ b/sputnik/personal/ee/173ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -478,10 +478,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1103,7 +1103,7 @@
         <v>22898</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" ref="D24:D25" si="19">C25-C23</f>
+        <f t="shared" ref="D25:D26" si="19">C25-C23</f>
         <v>200</v>
       </c>
       <c r="E25" s="2">
@@ -1117,25 +1117,76 @@
       <c r="H25" s="7"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F26" s="7" t="s">
+      <c r="A26" s="6">
+        <v>44440</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2">
+        <v>50476</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="19"/>
+        <v>705</v>
+      </c>
+      <c r="E26" s="2">
+        <v>4.96</v>
+      </c>
+      <c r="F26" s="8">
+        <f t="shared" ref="F26:F27" si="20">D26*E26</f>
+        <v>3496.8</v>
+      </c>
+      <c r="G26" s="9">
+        <f>SUM(F26,F27)</f>
+        <v>3898.8</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3898.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2">
+        <v>23048</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" ref="D27" si="21">C27-C25</f>
+        <v>150</v>
+      </c>
+      <c r="E27" s="2">
+        <v>2.68</v>
+      </c>
+      <c r="F27" s="8">
+        <f t="shared" si="20"/>
+        <v>402</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F28" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="9">
-        <f>SUM(G4:G25)</f>
-        <v>34938.19000000001</v>
-      </c>
-      <c r="H26" s="9">
-        <f>SUM(H4:H25)</f>
-        <v>34904.19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F27" s="7" t="s">
+      <c r="G28" s="9">
+        <f>SUM(G4:G27)</f>
+        <v>38836.990000000013</v>
+      </c>
+      <c r="H28" s="9">
+        <f>SUM(H4:H27)</f>
+        <v>38802.990000000005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="7"/>
-      <c r="H27" s="9">
-        <f>SUM(H26,-G26)</f>
+      <c r="G29" s="7"/>
+      <c r="H29" s="9">
+        <f>SUM(H28,-G28)</f>
         <v>-34.000000000007276</v>
       </c>
     </row>

--- a/sputnik/personal/ee/173ee.xlsx
+++ b/sputnik/personal/ee/173ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -478,7 +478,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J28" sqref="J28"/>
@@ -1154,7 +1154,7 @@
         <v>23048</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" ref="D27" si="21">C27-C25</f>
+        <f t="shared" ref="D27:D28" si="21">C27-C25</f>
         <v>150</v>
       </c>
       <c r="E27" s="2">
@@ -1168,25 +1168,76 @@
       <c r="H27" s="7"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F28" s="7" t="s">
+      <c r="A28" s="6">
+        <v>44501</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="2">
+        <v>51426</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" si="21"/>
+        <v>950</v>
+      </c>
+      <c r="E28" s="2">
+        <v>4.96</v>
+      </c>
+      <c r="F28" s="8">
+        <f t="shared" ref="F28:F29" si="22">D28*E28</f>
+        <v>4712</v>
+      </c>
+      <c r="G28" s="9">
+        <f>SUM(F28,F29)</f>
+        <v>5089.88</v>
+      </c>
+      <c r="H28" s="7">
+        <v>5089.88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2">
+        <v>23189</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" ref="D29" si="23">C29-C27</f>
+        <v>141</v>
+      </c>
+      <c r="E29" s="2">
+        <v>2.68</v>
+      </c>
+      <c r="F29" s="8">
+        <f t="shared" si="22"/>
+        <v>377.88</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F30" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G30" s="9">
         <f>SUM(G4:G27)</f>
         <v>38836.990000000013</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H30" s="9">
         <f>SUM(H4:H27)</f>
         <v>38802.990000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F29" s="7" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F31" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="7"/>
-      <c r="H29" s="9">
-        <f>SUM(H28,-G28)</f>
+      <c r="G31" s="7"/>
+      <c r="H31" s="9">
+        <f>SUM(H30,-G30)</f>
         <v>-34.000000000007276</v>
       </c>
     </row>

--- a/sputnik/personal/ee/173ee.xlsx
+++ b/sputnik/personal/ee/173ee.xlsx
@@ -481,7 +481,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1223,12 +1223,12 @@
         <v>10</v>
       </c>
       <c r="G30" s="9">
-        <f>SUM(G4:G27)</f>
-        <v>38836.990000000013</v>
+        <f>SUM(G4:G29)</f>
+        <v>43926.87000000001</v>
       </c>
       <c r="H30" s="9">
-        <f>SUM(H4:H27)</f>
-        <v>38802.990000000005</v>
+        <f>SUM(H4:H29)</f>
+        <v>43892.87</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
